--- a/biology/Médecine/Quérulence/Quérulence.xlsx
+++ b/biology/Médecine/Quérulence/Quérulence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Qu%C3%A9rulence</t>
+          <t>Quérulence</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La quérulence est, en psychiatrie, un délire de revendication qui amène à multiplier les combats pour redresser un dommage réel ou fictif. À travers ses comportements, la personne se montre anormalement persistante dans ses démarches et recours afin d’obtenir justice ou réparation.
-La personne malade, souvent paranoïaque, amplifie démesurément son préjudice et poursuit indéfiniment celui à qui elle en impute la cause[1]. Sans succès dans sa plainte, elle peut user de violence. Le diagnostic différentiel du délire de revendication, à distinguer du délire d'interprétation, a été décrit par Sérieux et Capgras[2].
-Dans le système judiciaire, les personnes souffrant de quérulence sont appelés « plaideurs quérulents ». Par leur attitude, ils peuvent perturber les activités d'un tribunal en le surchargeant de travail[3].
+La personne malade, souvent paranoïaque, amplifie démesurément son préjudice et poursuit indéfiniment celui à qui elle en impute la cause. Sans succès dans sa plainte, elle peut user de violence. Le diagnostic différentiel du délire de revendication, à distinguer du délire d'interprétation, a été décrit par Sérieux et Capgras.
+Dans le système judiciaire, les personnes souffrant de quérulence sont appelés « plaideurs quérulents ». Par leur attitude, ils peuvent perturber les activités d'un tribunal en le surchargeant de travail.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Qu%C3%A9rulence</t>
+          <t>Quérulence</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La quérulence est un terme dérivé de « quérulent » emprunté au latin tardif querulans (« qui se plaint », « qui plaide en justice »[4]).
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La quérulence est un terme dérivé de « quérulent » emprunté au latin tardif querulans (« qui se plaint », « qui plaide en justice »).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Qu%C3%A9rulence</t>
+          <t>Quérulence</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La quérulence est définie comme une « tendance pathologique à se plaindre d’injustices dont on se croit victime »[5]. Elle survient surtout entre 40 et 60 ans et est caractérisée par l'apparente grande logique juridique dont fait preuve la personne. Les plaideurs quérulents se représentent généralement seuls[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La quérulence est définie comme une « tendance pathologique à se plaindre d’injustices dont on se croit victime ». Elle survient surtout entre 40 et 60 ans et est caractérisée par l'apparente grande logique juridique dont fait preuve la personne. Les plaideurs quérulents se représentent généralement seuls.
 Dans le cas d'un hypocondriaque, la cible du harcèlement ou de la vengeance peut être un médecin.
 </t>
         </is>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Qu%C3%A9rulence</t>
+          <t>Quérulence</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La maladie fait partie de la Classification internationale des maladies dans le chapitre 5 sous la rubrique F22.8 « Autres troubles délirants persistants ».
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Qu%C3%A9rulence</t>
+          <t>Quérulence</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,15 +625,11 @@
           <t>Régulation dans le système judiciaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs pays ont établi des règles de manière à encadrer les plaideurs quérulents.
-Canada
-Québec
-Au Québec, les tribunaux ont le pouvoir d'interdire à une personne d'introduire une action en justice sans une autorisation préalable[7]. Un avocat qui estime que lui ou son client est victime de quérulence peut introduire un recours en déclaration de quérulence en vertu de l'article 51 du Code de procédure civile du Québec[8].
-États-Unis
-Californie
-En Californie, le Code de procédure civile prévoit des situations où une personne est déclarée plaideuse quérulente.
 </t>
         </is>
       </c>
@@ -626,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Qu%C3%A9rulence</t>
+          <t>Quérulence</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,10 +655,94 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Régulation dans le système judiciaire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Québec</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Québec, les tribunaux ont le pouvoir d'interdire à une personne d'introduire une action en justice sans une autorisation préalable. Un avocat qui estime que lui ou son client est victime de quérulence peut introduire un recours en déclaration de quérulence en vertu de l'article 51 du Code de procédure civile du Québec.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Quérulence</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Qu%C3%A9rulence</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Régulation dans le système judiciaire</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>États-Unis</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Californie</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Californie, le Code de procédure civile prévoit des situations où une personne est déclarée plaideuse quérulente.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Quérulence</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Qu%C3%A9rulence</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Quérulents notoires</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Valery Fabrikant (1940-), ancien professeur en génie mécanique à l'Université Concordia à Montréal et auteur de la tuerie de l'Université Concordia en 1992.
 Dorothy Squires (1915-1998), autrice-compositrice-interprète galloise.
